--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57607</v>
+        <v>44682</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ryan Pinto</t>
+          <t>Sr. Matheus Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>4631.01</v>
+        <v>11234.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56177</v>
+        <v>83960</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice Correia</t>
+          <t>Luiza Martins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>11022.34</v>
+        <v>6168.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21334</v>
+        <v>78643</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emilly Cardoso</t>
+          <t>Bárbara Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>6326.74</v>
+        <v>11097.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30187</v>
+        <v>45992</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Vitória Ramos</t>
+          <t>Dr. Thales Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>5534.36</v>
+        <v>5374.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15399</v>
+        <v>74166</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Cecília Gomes</t>
+          <t>Vitor Hugo Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>11672.42</v>
+        <v>10591.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63201</v>
+        <v>16927</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Ramos</t>
+          <t>Fernando da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>10996.84</v>
+        <v>4755.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20359</v>
+        <v>54084</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Rodrigues</t>
+          <t>Heitor da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>7740.17</v>
+        <v>10835.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4377</v>
+        <v>75870</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucca Freitas</t>
+          <t>Luiz Felipe Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>3874.9</v>
+        <v>10037.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32185</v>
+        <v>16305</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raquel Ferreira</t>
+          <t>Fernanda Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>4375.53</v>
+        <v>5989.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15907</v>
+        <v>95995</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isis Mendes</t>
+          <t>Ana Sophia Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>8523.889999999999</v>
+        <v>8904.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44682</v>
+        <v>14536</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Matheus Araújo</t>
+          <t>Yago da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>11234.84</v>
+        <v>10686.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83960</v>
+        <v>1714</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiza Martins</t>
+          <t>Sophia Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>6168.23</v>
+        <v>10220.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78643</v>
+        <v>53159</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bárbara Cunha</t>
+          <t>Lucca da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,196 +552,196 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>11097.41</v>
+        <v>3522.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45992</v>
+        <v>8338</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Thales Alves</t>
+          <t>Dra. Ana Lívia Teixeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>5374.36</v>
+        <v>11543.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74166</v>
+        <v>57794</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vitor Hugo Gonçalves</t>
+          <t>Davi Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>10591.8</v>
+        <v>11190.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16927</v>
+        <v>57504</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fernando da Paz</t>
+          <t>Lara Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>4755.06</v>
+        <v>9533.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54084</v>
+        <v>76285</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heitor da Conceição</t>
+          <t>Mirella Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>10835.63</v>
+        <v>12041.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75870</v>
+        <v>4129</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Felipe Viana</t>
+          <t>Paulo Moura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>10037.29</v>
+        <v>6776.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16305</v>
+        <v>24122</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernanda Moura</t>
+          <t>Juan Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>5989.07</v>
+        <v>5153.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95995</v>
+        <v>78415</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Sophia Dias</t>
+          <t>Sra. Lara da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>8904.77</v>
+        <v>12081.72</v>
       </c>
     </row>
   </sheetData>
